--- a/backend/runtime/export/试用申请列表_2018-07-05.xlsx
+++ b/backend/runtime/export/试用申请列表_2018-07-05.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,13 @@
     <t>标题2</t>
   </si>
   <si>
-    <t>测试广告1</t>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>wrwrw</t>
+  </si>
+  <si>
+    <t>测试广告1222</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border/>
     <border>
       <left style="medium">
@@ -85,6 +91,20 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -99,7 +119,35 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -163,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -176,13 +224,22 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -484,7 +541,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -495,34 +552,188 @@
   <cols>
     <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:C2"/>
+  <autoFilter ref="A1:C16"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
